--- a/Chapter 3 - Assembly/[ignore]/InMemory.xlsx
+++ b/Chapter 3 - Assembly/[ignore]/InMemory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Z0F\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Z0FCourse_ReverseEngineering\Chapter 3 - Assembly\[ignore]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D503236-DF36-4D2F-A7E0-8C20DFD8CC81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D33739-7050-492D-AED0-467D75E0390B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{05964998-EB3C-48EF-8C3F-9A82B179093B}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>0x08</t>
   </si>
   <si>
-    <t>0x0C</t>
+    <t>0x00</t>
   </si>
   <si>
-    <t>0x10</t>
+    <t>0xC</t>
   </si>
 </sst>
 </file>
@@ -84,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -92,16 +92,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,51 +547,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DCCC8-A263-4435-A4D8-9A45A2E80DA1}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="E3:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="0.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="5" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="F5" s="4">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="G5" s="5">
         <v>34</v>
       </c>
-      <c r="D2" s="2">
+      <c r="H5" s="5">
         <v>56</v>
       </c>
-      <c r="E2" s="2">
+      <c r="I5" s="6">
         <v>78</v>
       </c>
     </row>
+    <row r="6" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
